--- a/biology/Médecine/CIM-10_Chapitre_21___Facteurs_influant_sur_l'état_de_santé_et_motifs_de_recours_aux_services_de_santé/CIM-10_Chapitre_21___Facteurs_influant_sur_l'état_de_santé_et_motifs_de_recours_aux_services_de_santé.xlsx
+++ b/biology/Médecine/CIM-10_Chapitre_21___Facteurs_influant_sur_l'état_de_santé_et_motifs_de_recours_aux_services_de_santé/CIM-10_Chapitre_21___Facteurs_influant_sur_l'état_de_santé_et_motifs_de_recours_aux_services_de_santé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CIM-10_Chapitre_21_:_Facteurs_influant_sur_l%27%C3%A9tat_de_sant%C3%A9_et_motifs_de_recours_aux_services_de_sant%C3%A9</t>
+          <t>CIM-10_Chapitre_21_:_Facteurs_influant_sur_l'état_de_santé_et_motifs_de_recours_aux_services_de_santé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet article développe le chapitre XXI de la classification internationale des maladies, CIM-10[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet article développe le chapitre XXI de la classification internationale des maladies, CIM-10.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CIM-10_Chapitre_21_:_Facteurs_influant_sur_l%27%C3%A9tat_de_sant%C3%A9_et_motifs_de_recours_aux_services_de_sant%C3%A9</t>
+          <t>CIM-10_Chapitre_21_:_Facteurs_influant_sur_l'état_de_santé_et_motifs_de_recours_aux_services_de_santé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Z00-Z13 Sujets en contact avec les services de santé pour des examens divers</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(Z00) Examen général et investigations de sujets ne se plaignant de rien ou pour lesquels aucun diagnostic n'est rapporté
 (Z00.0) Examen médical général
@@ -626,7 +640,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CIM-10_Chapitre_21_:_Facteurs_influant_sur_l%27%C3%A9tat_de_sant%C3%A9_et_motifs_de_recours_aux_services_de_sant%C3%A9</t>
+          <t>CIM-10_Chapitre_21_:_Facteurs_influant_sur_l'état_de_santé_et_motifs_de_recours_aux_services_de_santé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -644,7 +658,9 @@
           <t>Z20-Z29 Sujets pouvant courir un risque lié à des maladies transmissibles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(Z20) Sujets en contact avec et exposés à des maladies transmissibles
 (Z20.0) Sujets en contact avec et exposés à des maladies infectieuses intestinales
@@ -723,7 +739,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CIM-10_Chapitre_21_:_Facteurs_influant_sur_l%27%C3%A9tat_de_sant%C3%A9_et_motifs_de_recours_aux_services_de_sant%C3%A9</t>
+          <t>CIM-10_Chapitre_21_:_Facteurs_influant_sur_l'état_de_santé_et_motifs_de_recours_aux_services_de_santé</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -741,7 +757,9 @@
           <t>Z30-Z39 Sujets ayant recours aux services de santé pour des motifs liés à la reproduction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(Z30) Prise en charge d'une contraception
 (Z30.0) Conseils et avis généraux concernant la contraception
@@ -823,7 +841,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CIM-10_Chapitre_21_:_Facteurs_influant_sur_l%27%C3%A9tat_de_sant%C3%A9_et_motifs_de_recours_aux_services_de_sant%C3%A9</t>
+          <t>CIM-10_Chapitre_21_:_Facteurs_influant_sur_l'état_de_santé_et_motifs_de_recours_aux_services_de_santé</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -841,7 +859,9 @@
           <t>Z40-Z54 Sujets ayant recours aux services de santé pour des actes médicaux et des soins spécifiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(Z40) Opération prophylactique
 (Z40.0) Opération prophylactique pour facteur de risque de tumeurs malignes
@@ -966,7 +986,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CIM-10_Chapitre_21_:_Facteurs_influant_sur_l%27%C3%A9tat_de_sant%C3%A9_et_motifs_de_recours_aux_services_de_sant%C3%A9</t>
+          <t>CIM-10_Chapitre_21_:_Facteurs_influant_sur_l'état_de_santé_et_motifs_de_recours_aux_services_de_santé</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -984,7 +1004,9 @@
           <t>Z55-Z65 Sujets dont la santé peut être menacée par des conditions socio-économiques et psycho-sociales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(Z55) Difficultés liées à l'éducation et l'alphabétisation
 (Z55.0) Analphabétisme et faible niveau éducatif
@@ -1101,7 +1123,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CIM-10_Chapitre_21_:_Facteurs_influant_sur_l%27%C3%A9tat_de_sant%C3%A9_et_motifs_de_recours_aux_services_de_sant%C3%A9</t>
+          <t>CIM-10_Chapitre_21_:_Facteurs_influant_sur_l'état_de_santé_et_motifs_de_recours_aux_services_de_santé</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1119,7 +1141,9 @@
           <t>Z70-Z76 Sujets ayant recours aux services de santé pour d'autres motifs</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>(Z70) Conseils relatifs aux attitudes, comportement et orientation en matière de sexualité
 (Z70.0) Conseil relatif aux attitudes en matière de sexualité
@@ -1193,7 +1217,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CIM-10_Chapitre_21_:_Facteurs_influant_sur_l%27%C3%A9tat_de_sant%C3%A9_et_motifs_de_recours_aux_services_de_sant%C3%A9</t>
+          <t>CIM-10_Chapitre_21_:_Facteurs_influant_sur_l'état_de_santé_et_motifs_de_recours_aux_services_de_santé</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1211,7 +1235,9 @@
           <t>Z80-Z99 Sujets dont la santé peut être menacée en raison d'antécédents personnels et familiaux et de certaines affections</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">(Z80) Antécédents familiaux de tumeur maligne
 (Z80.0) Antécédents familiaux de tumeur maligne des organes digestifs
